--- a/Clustering/Output_Clusters_Asigned_To_Countries/kmeans_10_af_df_solar_offshore.xlsx
+++ b/Clustering/Output_Clusters_Asigned_To_Countries/kmeans_10_af_df_solar_offshore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,19 +484,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01845444059976931</v>
+        <v>0.02707373271889402</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0276179516685846</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.02247191011235954</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.002027027027027027</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002049180327868853</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -521,19 +521,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05651672433679351</v>
+        <v>0.05587557603686627</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05581127733026471</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.06292134831460669</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.09350775193798465</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03970678069639587</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -561,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1724137931034484</v>
+        <v>0.02252252252252252</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.08940397350993383</v>
       </c>
       <c r="J4" t="n">
-        <v>0.118787878787879</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -583,31 +583,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02794653705953827</v>
+        <v>0.3878378378378345</v>
       </c>
       <c r="C5" t="n">
-        <v>0.380464480874312</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.01816239316239316</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2352941176470587</v>
+        <v>0.2355990783410156</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2330264672036826</v>
+        <v>0.002257336343115124</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000591016548463357</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.2078651685393255</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -632,19 +632,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.008073817762399078</v>
+        <v>0.02188940092165899</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02186421173762947</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.007865168539325843</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.0380794701986755</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -694,34 +694,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.2844594594594572</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3360655737704886</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002036659877800407</v>
+        <v>0.3865225683407469</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1499423298731256</v>
+        <v>0.05990783410138238</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06041426927502881</v>
+        <v>0.4225733634311608</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4349881796690226</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.1415730337078653</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3101851851851864</v>
+        <v>0.01363366923532898</v>
       </c>
     </row>
     <row r="9">
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.02980132450331128</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.1191860465116281</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09468540012217441</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01996370235934664</v>
+        <v>0.1154791154791162</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.01076158940397351</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1339393939393942</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.007290400972053462</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.01017441860465117</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.007478632478632478</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -857,16 +857,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07441016333938294</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03559602649006623</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01454545454545455</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -891,13 +891,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.05069124423963127</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0506329113924051</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.06689189189189185</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05191256830601097</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -928,19 +928,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3910034602076122</v>
+        <v>0.1255760368663591</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1317606444188724</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.3674157303370771</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0348197923029933</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.01842751842751843</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -990,31 +990,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3317132442284323</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.0343992248062016</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.2948717948717942</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.01670506912442395</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09074410163339379</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01553509781357883</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.04470198675496687</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04848484848484842</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1039,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002306805074971165</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.004027617951668585</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.002247191011235955</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.0009689922480620155</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.007259528130671506</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.00413907284768212</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001818181818181818</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.01283783783783784</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1113,19 +1113,19 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.003460207612456748</v>
+        <v>0.09677419354838683</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09666283084004611</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.003370786516853933</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.02361751152073733</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02359033371691601</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0126874279123414</v>
+        <v>0.04089861751152071</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.04085155350978138</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.01235955056179775</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.04750204750204763</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.0006756756756756757</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1261,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07843137254901957</v>
+        <v>0.126728110599078</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1277330264672038</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.07752808988764047</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.003391472868217054</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1301,16 +1301,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.003629764065335753</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.004966887417218543</v>
       </c>
       <c r="J24" t="n">
-        <v>0.006666666666666668</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3304981773997567</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.09108527131782961</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08735491753207064</v>
+        <v>0.3023504273504266</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1597,16 +1597,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1597096188747732</v>
+        <v>0.05159705159705176</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.06456953642384099</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1042424242424244</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.00850546780072904</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.2349806201550391</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04153940134392183</v>
+        <v>0.009615384615384614</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1634,16 +1634,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1252268602540834</v>
+        <v>0.01556101556101556</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.06870860927152313</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2854545454545467</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -1668,13 +1668,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.003456221198156682</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.003452243958573073</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1720,191 +1720,6 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Spain / France</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.002430133657351154</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area United Kingdom / Denmark (Faeroe Islands)</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.01297814207650274</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Italy / France</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Sweden / Norway</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.0005753739930955121</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Croatia / Slovenia</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
         <v>0</v>
       </c>
     </row>
